--- a/project-management.xlsx
+++ b/project-management.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmarton/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmarton/Desktop/Projects/Training/Udacity Devops/udacity-devops-project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A496F-7150-0449-BA8A-124AF1723E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9CFB6-EE2E-234E-A568-99BAF8A1C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -136,6 +137,81 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t xml:space="preserve">Yearly Plan 2023 </t>
+  </si>
+  <si>
+    <t>Quarter: 1</t>
+  </si>
+  <si>
+    <t>Project: House price MVP with CI/CD</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>ML deliverables</t>
+  </si>
+  <si>
+    <t>Frontend deliverables</t>
+  </si>
+  <si>
+    <t>Backend deliverables</t>
+  </si>
+  <si>
+    <t>Top Goals</t>
+  </si>
+  <si>
+    <t>Difficulty 1-3</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,8 +287,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +363,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -262,7 +385,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -296,6 +419,31 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -513,14 +661,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A9482-71D3-1E4F-B47E-8FE5BA8695B0}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="25">
+        <v>44928</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="25">
+        <v>44935</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="25">
+        <v>44942</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="25">
+        <v>44949</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="25">
+        <v>44956</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25">
+        <v>44963</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="25">
+        <v>44970</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="25">
+        <v>44977</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25">
+        <v>44984</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="25">
+        <v>44991</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="25">
+        <v>44998</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="25">
+        <v>45005</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24">
+        <v>2</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
